--- a/_CLUSTER/groups_time_area/Frost/MALI/groups_counts_area3_Pg.xlsx
+++ b/_CLUSTER/groups_time_area/Frost/MALI/groups_counts_area3_Pg.xlsx
@@ -373,18 +373,18 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/_CLUSTER/groups_time_area/Frost/MALI/groups_counts_area3_Pg.xlsx
+++ b/_CLUSTER/groups_time_area/Frost/MALI/groups_counts_area3_Pg.xlsx
@@ -376,7 +376,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -384,7 +384,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/_CLUSTER/groups_time_area/Frost/MALI/groups_counts_area3_Pg.xlsx
+++ b/_CLUSTER/groups_time_area/Frost/MALI/groups_counts_area3_Pg.xlsx
@@ -373,18 +373,18 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
